--- a/BalanceSheet/PHM_bal.xlsx
+++ b/BalanceSheet/PHM_bal.xlsx
@@ -580,19 +580,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-243947000.0</v>
+        <v>8007000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>8042000000.0</v>
+        <v>-81265000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>7642000000.0</v>
+        <v>-17513000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>7614000000.0</v>
+        <v>291130000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7889000000.0</v>
+        <v>-189364000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>189442000.0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-1352000.0</v>
+        <v>405000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>511000000.0</v>
+        <v>274578000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>342000000.0</v>
+        <v>12940000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>295000000.0</v>
+        <v>-58959000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>430000000.0</v>
+        <v>-26910000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>435916000.0</v>
@@ -2920,19 +2920,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>11391000.0</v>
+        <v>-21000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-136000000.0</v>
+        <v>48106000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-81000000.0</v>
+        <v>39831000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-121000000.0</v>
+        <v>29706000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-150000000.0</v>
+        <v>19955000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>21686000.0</v>
@@ -4527,7 +4527,7 @@
         <v>1972000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1932000000.0</v>
+        <v>1840157000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>2224897000.0</v>
@@ -4654,7 +4654,7 @@
         <v>3823000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>3183000000.0</v>
+        <v>3091613000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2993541000.0</v>
